--- a/ele/SchoolBot/v1.0/seznam_součástek.xlsx
+++ b/ele/SchoolBot/v1.0/seznam_součástek.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>součástka</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>dvouřadý pinhed 16pin</t>
-  </si>
-  <si>
-    <t>jednouřadá dutinka 6pin</t>
-  </si>
-  <si>
-    <t>jednouřadá dutinka 19pin</t>
   </si>
   <si>
     <t>jednořadý pinhed 16pin</t>
@@ -154,6 +148,84 @@
   </si>
   <si>
     <t>navrh nakupu</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33027142016.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-57&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33009598119.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-55&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33006982026.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-52&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>cca 93kč s dopravou</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32868588073.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-3&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32984154926.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-9&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32376035003.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-1&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33049748815.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-0&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>jednořadý pinhed 3pin</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32862759512.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-36&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32968548350.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-55&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33055470191.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-3&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33053966916.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-1&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33039122678.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-2&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32850676851.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-26&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32848810276.html?spm=a2g0o.productlist.0.0.57366a73uFzd9a&amp;algo_pvid=30088cee-75b3-4a6e-a61f-7e6623ba6514&amp;algo_expid=30088cee-75b3-4a6e-a61f-7e6623ba6514-0&amp;btsid=bbf3ccc2-cc81-45f6-ba3e-bc58e3de9b47&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32635335980.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-0&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33012213072.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-32&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>jednořadá dutinka 6pin</t>
+  </si>
+  <si>
+    <t>jednořadá dutinka 19pin</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/4000096249321.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-0&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32964935619.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-5&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>nechci je z činy vzít v česku</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32853377901.html?spm=a2g0o.productlist.0.0.5e217564JMbYRf&amp;algo_pvid=1598e670-c74c-4cdd-a1c3-814a6e13d43e&amp;algo_expid=1598e670-c74c-4cdd-a1c3-814a6e13d43e-11&amp;btsid=0c1e24ae-c3d7-418f-83ee-1b8e88b61859&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33018188004.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-3&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32999889679.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-2&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
   </si>
 </sst>
 </file>
@@ -205,12 +277,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -492,279 +584,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="41" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="18.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>7805</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>7805</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C18:C19"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1"/>
+    <hyperlink ref="D28" r:id="rId1"/>
+    <hyperlink ref="E2"/>
+    <hyperlink ref="D2"/>
+    <hyperlink ref="F2"/>
+    <hyperlink ref="D3"/>
+    <hyperlink ref="E3"/>
+    <hyperlink ref="D4"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://nl.aliexpress.com/item/33049748815.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-0&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
+    <hyperlink ref="D5"/>
+    <hyperlink ref="E5"/>
+    <hyperlink ref="F5"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://nl.aliexpress.com/item/33053966916.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-1&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://nl.aliexpress.com/item/33039122678.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-2&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://nl.aliexpress.com/item/32850676851.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-26&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://nl.aliexpress.com/item/32848810276.html?spm=a2g0o.productlist.0.0.57366a73uFzd9a&amp;algo_pvid=30088cee-75b3-4a6e-a61f-7e6623ba6514&amp;algo_expid=30088cee-75b3-4a6e-a61f-7e6623ba6514-0&amp;btsid=bbf3ccc2-cc81-45f6-ba3e-bc58e3de9b47&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
+    <hyperlink ref="D11"/>
+    <hyperlink ref="E11" r:id="rId7" display="https://nl.aliexpress.com/item/33012213072.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-32&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
+    <hyperlink ref="D15"/>
+    <hyperlink ref="D12"/>
+    <hyperlink ref="D20"/>
+    <hyperlink ref="D21"/>
+    <hyperlink ref="E21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/ele/SchoolBot/v1.0/seznam_součástek.xlsx
+++ b/ele/SchoolBot/v1.0/seznam_součástek.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63476A32-A06C-4527-9BB9-3A676F9BAC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -129,8 +130,92 @@
     <t>trimr</t>
   </si>
   <si>
+    <t>https://cz.farnell.com/panasonic/evm3ysx50b14/trimmer-10kohm-25-0-15w/dp/1849801?st=trimr</t>
+  </si>
+  <si>
+    <t>navrh nakupu</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33027142016.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-57&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33009598119.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-55&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33006982026.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-52&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>cca 93kč s dopravou</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32868588073.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-3&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32984154926.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-9&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32376035003.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-1&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33049748815.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-0&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>jednořadý pinhed 3pin</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32862759512.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-36&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32968548350.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-55&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33055470191.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-3&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33053966916.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-1&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33039122678.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-2&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32850676851.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-26&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32848810276.html?spm=a2g0o.productlist.0.0.57366a73uFzd9a&amp;algo_pvid=30088cee-75b3-4a6e-a61f-7e6623ba6514&amp;algo_expid=30088cee-75b3-4a6e-a61f-7e6623ba6514-0&amp;btsid=bbf3ccc2-cc81-45f6-ba3e-bc58e3de9b47&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32635335980.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-0&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33012213072.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-32&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>jednořadá dutinka 6pin</t>
+  </si>
+  <si>
+    <t>jednořadá dutinka 19pin</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/4000096249321.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-0&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32964935619.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-5&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>nechci je z činy vzít v česku</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32853377901.html?spm=a2g0o.productlist.0.0.5e217564JMbYRf&amp;algo_pvid=1598e670-c74c-4cdd-a1c3-814a6e13d43e&amp;algo_expid=1598e670-c74c-4cdd-a1c3-814a6e13d43e-11&amp;btsid=0c1e24ae-c3d7-418f-83ee-1b8e88b61859&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33018188004.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-3&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32999889679.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-2&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
     <r>
-      <t>10k</t>
+      <t>100k</t>
     </r>
     <r>
       <rPr>
@@ -143,95 +228,11 @@
       <t>Ω</t>
     </r>
   </si>
-  <si>
-    <t>https://cz.farnell.com/panasonic/evm3ysx50b14/trimmer-10kohm-25-0-15w/dp/1849801?st=trimr</t>
-  </si>
-  <si>
-    <t>navrh nakupu</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33027142016.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-57&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33009598119.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-55&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33006982026.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-52&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>cca 93kč s dopravou</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32868588073.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-3&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32984154926.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-9&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32376035003.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-1&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33049748815.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-0&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>jednořadý pinhed 3pin</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32862759512.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-36&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32968548350.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-55&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33055470191.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-3&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33053966916.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-1&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33039122678.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-2&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32850676851.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-26&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32848810276.html?spm=a2g0o.productlist.0.0.57366a73uFzd9a&amp;algo_pvid=30088cee-75b3-4a6e-a61f-7e6623ba6514&amp;algo_expid=30088cee-75b3-4a6e-a61f-7e6623ba6514-0&amp;btsid=bbf3ccc2-cc81-45f6-ba3e-bc58e3de9b47&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32635335980.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-0&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33012213072.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-32&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>jednořadá dutinka 6pin</t>
-  </si>
-  <si>
-    <t>jednořadá dutinka 19pin</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/4000096249321.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-0&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32964935619.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-5&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>nechci je z činy vzít v česku</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32853377901.html?spm=a2g0o.productlist.0.0.5e217564JMbYRf&amp;algo_pvid=1598e670-c74c-4cdd-a1c3-814a6e13d43e&amp;algo_expid=1598e670-c74c-4cdd-a1c3-814a6e13d43e-11&amp;btsid=0c1e24ae-c3d7-418f-83ee-1b8e88b61859&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33018188004.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-3&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32999889679.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-2&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,16 +624,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,13 +692,13 @@
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,10 +752,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,7 +809,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -817,18 +818,18 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -843,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -948,28 +949,28 @@
     <mergeCell ref="C18:C19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1"/>
-    <hyperlink ref="E2"/>
-    <hyperlink ref="D2"/>
-    <hyperlink ref="F2"/>
-    <hyperlink ref="D3"/>
-    <hyperlink ref="E3"/>
-    <hyperlink ref="D4"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://nl.aliexpress.com/item/33049748815.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-0&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
-    <hyperlink ref="D5"/>
-    <hyperlink ref="E5"/>
-    <hyperlink ref="F5"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://nl.aliexpress.com/item/33053966916.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-1&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://nl.aliexpress.com/item/33039122678.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-2&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://nl.aliexpress.com/item/32850676851.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-26&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://nl.aliexpress.com/item/32848810276.html?spm=a2g0o.productlist.0.0.57366a73uFzd9a&amp;algo_pvid=30088cee-75b3-4a6e-a61f-7e6623ba6514&amp;algo_expid=30088cee-75b3-4a6e-a61f-7e6623ba6514-0&amp;btsid=bbf3ccc2-cc81-45f6-ba3e-bc58e3de9b47&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
-    <hyperlink ref="D11"/>
-    <hyperlink ref="E11" r:id="rId7" display="https://nl.aliexpress.com/item/33012213072.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-32&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
-    <hyperlink ref="D15"/>
-    <hyperlink ref="D12"/>
-    <hyperlink ref="D20"/>
-    <hyperlink ref="D21"/>
-    <hyperlink ref="E21"/>
+    <hyperlink ref="D28" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" display="https://nl.aliexpress.com/item/33009598119.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-55&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,s" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" display="https://nl.aliexpress.com/item/33027142016.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-57&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,s" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F2" display="https://nl.aliexpress.com/item/33006982026.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-52&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,s" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D3" display="https://nl.aliexpress.com/item/32868588073.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-3&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,se" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E3" display="https://nl.aliexpress.com/item/32984154926.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-9&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,se" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D4" display="https://nl.aliexpress.com/item/32376035003.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-1&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,se" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://nl.aliexpress.com/item/33049748815.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-0&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D5" display="https://nl.aliexpress.com/item/32862759512.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-36&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,s" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E5" display="https://nl.aliexpress.com/item/32968548350.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-55&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,s" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F5" display="https://nl.aliexpress.com/item/33055470191.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-3&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,se" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D6" r:id="rId3" display="https://nl.aliexpress.com/item/33053966916.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-1&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://nl.aliexpress.com/item/33039122678.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-2&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://nl.aliexpress.com/item/32850676851.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-26&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://nl.aliexpress.com/item/32848810276.html?spm=a2g0o.productlist.0.0.57366a73uFzd9a&amp;algo_pvid=30088cee-75b3-4a6e-a61f-7e6623ba6514&amp;algo_expid=30088cee-75b3-4a6e-a61f-7e6623ba6514-0&amp;btsid=bbf3ccc2-cc81-45f6-ba3e-bc58e3de9b47&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D11" display="https://nl.aliexpress.com/item/32635335980.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-0&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,se" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E11" r:id="rId7" display="https://nl.aliexpress.com/item/33012213072.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-32&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D15" display="https://nl.aliexpress.com/item/4000096249321.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-0&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0," xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D12" display="https://nl.aliexpress.com/item/32964935619.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-5&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,se" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D20" display="https://nl.aliexpress.com/item/32853377901.html?spm=a2g0o.productlist.0.0.5e217564JMbYRf&amp;algo_pvid=1598e670-c74c-4cdd-a1c3-814a6e13d43e&amp;algo_expid=1598e670-c74c-4cdd-a1c3-814a6e13d43e-11&amp;btsid=0c1e24ae-c3d7-418f-83ee-1b8e88b61859&amp;ws_ab_test=searchweb0_0,s" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D21" display="https://nl.aliexpress.com/item/33018188004.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-3&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,se" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E21" display="https://nl.aliexpress.com/item/32999889679.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-2&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,se" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/ele/SchoolBot/v1.0/seznam_součástek.xlsx
+++ b/ele/SchoolBot/v1.0/seznam_součástek.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63476A32-A06C-4527-9BB9-3A676F9BAC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D77D3-655B-4248-B209-A01DB5141DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>N mosfet SOT23 gsd</t>
   </si>
   <si>
-    <t>rezistorová sit 4.kanal</t>
-  </si>
-  <si>
     <t>poznámka</t>
   </si>
   <si>
@@ -91,8 +88,116 @@
     <t>jedna jako power led</t>
   </si>
   <si>
+    <t>R 0805</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>2mΩ</t>
+  </si>
+  <si>
+    <t>C 1206</t>
+  </si>
+  <si>
+    <t>100uf</t>
+  </si>
+  <si>
+    <t>100nf</t>
+  </si>
+  <si>
+    <t>trimr</t>
+  </si>
+  <si>
+    <t>https://cz.farnell.com/panasonic/evm3ysx50b14/trimmer-10kohm-25-0-15w/dp/1849801?st=trimr</t>
+  </si>
+  <si>
+    <t>navrh nakupu</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33027142016.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-57&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33009598119.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-55&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33006982026.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-52&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>cca 93kč s dopravou</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32868588073.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-3&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32984154926.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-9&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32376035003.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-1&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33049748815.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-0&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>jednořadý pinhed 3pin</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32862759512.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-36&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32968548350.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-55&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33055470191.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-3&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33053966916.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-1&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33039122678.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-2&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32850676851.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-26&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32848810276.html?spm=a2g0o.productlist.0.0.57366a73uFzd9a&amp;algo_pvid=30088cee-75b3-4a6e-a61f-7e6623ba6514&amp;algo_expid=30088cee-75b3-4a6e-a61f-7e6623ba6514-0&amp;btsid=bbf3ccc2-cc81-45f6-ba3e-bc58e3de9b47&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32635335980.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-0&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33012213072.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-32&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>jednořadá dutinka 6pin</t>
+  </si>
+  <si>
+    <t>jednořadá dutinka 19pin</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/4000096249321.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-0&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32964935619.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-5&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>nechci je z činy vzít v česku</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32853377901.html?spm=a2g0o.productlist.0.0.5e217564JMbYRf&amp;algo_pvid=1598e670-c74c-4cdd-a1c3-814a6e13d43e&amp;algo_expid=1598e670-c74c-4cdd-a1c3-814a6e13d43e-11&amp;btsid=0c1e24ae-c3d7-418f-83ee-1b8e88b61859&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/33018188004.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-3&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32999889679.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-2&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+  </si>
+  <si>
     <r>
-      <t>pouzdro 0805   od 330Ω do 1k</t>
+      <t>100k</t>
     </r>
     <r>
       <rPr>
@@ -106,116 +211,11 @@
     </r>
   </si>
   <si>
-    <t>R 0805</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>2mΩ</t>
-  </si>
-  <si>
-    <t>C 1206</t>
-  </si>
-  <si>
-    <t>100uf</t>
-  </si>
-  <si>
-    <t>100nf</t>
-  </si>
-  <si>
-    <t>trimr</t>
-  </si>
-  <si>
-    <t>https://cz.farnell.com/panasonic/evm3ysx50b14/trimmer-10kohm-25-0-15w/dp/1849801?st=trimr</t>
-  </si>
-  <si>
-    <t>navrh nakupu</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33027142016.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-57&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33009598119.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-55&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33006982026.html?spm=a2g0o.productlist.0.0.6e961496t8kyN3&amp;algo_pvid=20116455-6281-45bc-b7ff-58567bb95edf&amp;algo_expid=20116455-6281-45bc-b7ff-58567bb95edf-52&amp;btsid=e31c26b4-0e68-4b14-94ea-33a11843421d&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>cca 93kč s dopravou</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32868588073.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-3&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32984154926.html?spm=a2g0o.productlist.0.0.29aa49e4MOcnFh&amp;algo_pvid=452a2a35-02c6-4954-ae4a-28d6abda5f49&amp;algo_expid=452a2a35-02c6-4954-ae4a-28d6abda5f49-9&amp;btsid=d23fb84e-8808-4f5b-a5f8-9637ca3bcc08&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32376035003.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-1&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33049748815.html?spm=a2g0o.productlist.0.0.52881eb7VGlukC&amp;algo_pvid=0b105ad2-b852-43fe-9cee-af6e47fa766b&amp;algo_expid=0b105ad2-b852-43fe-9cee-af6e47fa766b-0&amp;btsid=f1942b1f-e0ae-4f5c-aaad-68e515287efe&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>jednořadý pinhed 3pin</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32862759512.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-36&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32968548350.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-55&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33055470191.html?spm=a2g0o.productlist.0.0.51017902VQrixU&amp;algo_pvid=0abc143a-4e1a-4ac1-827b-fee0aed64781&amp;algo_expid=0abc143a-4e1a-4ac1-827b-fee0aed64781-3&amp;btsid=e2c01f4d-e9cf-4ad2-a735-a49d4a127957&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33053966916.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-1&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33039122678.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-2&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32850676851.html?spm=a2g0o.productlist.0.0.5eeb301dWdj4ai&amp;algo_pvid=e4724270-e8ce-489f-9e25-19a00c72f97c&amp;algo_expid=e4724270-e8ce-489f-9e25-19a00c72f97c-26&amp;btsid=65bc2a2f-fb54-44bc-b086-60eafe2ec25a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32848810276.html?spm=a2g0o.productlist.0.0.57366a73uFzd9a&amp;algo_pvid=30088cee-75b3-4a6e-a61f-7e6623ba6514&amp;algo_expid=30088cee-75b3-4a6e-a61f-7e6623ba6514-0&amp;btsid=bbf3ccc2-cc81-45f6-ba3e-bc58e3de9b47&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32635335980.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-0&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33012213072.html?spm=a2g0o.productlist.0.0.380039a4wVfdxp&amp;algo_pvid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e&amp;algo_expid=b597c2df-67a3-4ef8-b7bb-38330cd48f9e-32&amp;btsid=8b7f190e-c2e3-4a77-a002-f275d7313139&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>jednořadá dutinka 6pin</t>
-  </si>
-  <si>
-    <t>jednořadá dutinka 19pin</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/4000096249321.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-0&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32964935619.html?spm=a2g0o.productlist.0.0.7af93081HVuLsN&amp;algo_pvid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d&amp;algo_expid=05d7c767-1bbd-4cce-98de-cdeb8c86f74d-5&amp;btsid=1f2cf16e-a65c-4e01-ab95-a1f5dbeab38b&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>nechci je z činy vzít v česku</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32853377901.html?spm=a2g0o.productlist.0.0.5e217564JMbYRf&amp;algo_pvid=1598e670-c74c-4cdd-a1c3-814a6e13d43e&amp;algo_expid=1598e670-c74c-4cdd-a1c3-814a6e13d43e-11&amp;btsid=0c1e24ae-c3d7-418f-83ee-1b8e88b61859&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/33018188004.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-3&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
-  </si>
-  <si>
-    <t>https://nl.aliexpress.com/item/32999889679.html?spm=a2g0o.productlist.0.0.43ed7c2bAdbrKw&amp;algo_pvid=c28d7679-2390-44ae-9577-13ea8c0f310e&amp;algo_expid=c28d7679-2390-44ae-9577-13ea8c0f310e-2&amp;btsid=f9d1b10d-aeae-4291-a459-ee8ea888782a&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+    <t>rezistorová sit 4.kanal nebo 4 rezistory 0603</t>
   </si>
   <si>
     <r>
-      <t>100k</t>
+      <t>od 330Ω do 1k</t>
     </r>
     <r>
       <rPr>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -303,6 +303,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,7 +594,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -624,16 +630,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -658,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,13 +678,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -752,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -809,7 +815,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
@@ -818,18 +824,18 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -844,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -855,90 +861,90 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>23</v>
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
